--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang04/XKSX_LK_Upgrade 4G_090424.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho_2024/XuatKho/Thang04/XKSX_LK_Upgrade 4G_090424.xlsx
@@ -3295,7 +3295,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3416,7 +3416,7 @@
         <v>92</v>
       </c>
       <c r="D9" s="86">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="86" t="s">
@@ -3435,7 +3435,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="86">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E10" s="74"/>
       <c r="F10" s="86" t="s">
@@ -3454,7 +3454,7 @@
         <v>92</v>
       </c>
       <c r="D11" s="86">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="86" t="s">
@@ -3473,7 +3473,7 @@
         <v>92</v>
       </c>
       <c r="D12" s="86">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E12" s="74"/>
       <c r="F12" s="86" t="s">
@@ -3492,7 +3492,7 @@
         <v>92</v>
       </c>
       <c r="D13" s="86">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="E13" s="74"/>
       <c r="F13" s="86" t="s">
